--- a/biology/Zoologie/Charmus_saradieli/Charmus_saradieli.xlsx
+++ b/biology/Zoologie/Charmus_saradieli/Charmus_saradieli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charmus saradieli est une espèce de scorpions de la famille des Buthidae et du genre Charmus. C'est une espèce qu'on ne retrouve qu'au Sri Lanka, île du sud du Sous-continent indien. Charmus saradieli fut décrit en 2016.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution et découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charmus saradieli fut découvert pour la première fois dans les années 1850 dans ce qui était alors le Raj britannique près de la ville de Colombo et Kandy. Mais ne fut nommée qu'en 2016. Cette espèce est endémique du Sri Lanka[1]. Elle se rencontre dans le Massif central.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charmus saradieli fut découvert pour la première fois dans les années 1850 dans ce qui était alors le Raj britannique près de la ville de Colombo et Kandy. Mais ne fut nommée qu'en 2016. Cette espèce est endémique du Sri Lanka. Elle se rencontre dans le Massif central.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 23,50 mm et le mâle paratype 12,18 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 23,50 mm et le mâle paratype 12,18 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Deekirikevage Saradiel[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Deekirikevage Saradiel.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kovařík, Lowe, Ranawana, Hoferek, Jayarathne, Plíšková &amp; Šťáhlavský, 2016 : « Scorpions of Sri Lanka (Arachnida, Scorpiones: Buthidae, Chaerilidae, Scorpionidae) with Description of Four New Species of the Genera Charmus Karsch, 1879 and Reddyanus Vachon, 1972, stat. n. » Euscorpius, no 220, p. 1-133 (texte intégral).</t>
         </is>
